--- a/Data/Transitions/19571971Translation.xlsx
+++ b/Data/Transitions/19571971Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="680">
   <si>
     <t>id</t>
   </si>
@@ -433,7 +433,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -625,7 +625,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1721,9 +1721,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3935,7 +3932,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>569</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3946,7 +3943,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3957,7 +3954,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4012,7 +4009,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4078,7 +4075,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4144,7 +4141,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4155,7 +4152,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4188,7 +4185,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4199,7 +4196,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4243,7 +4240,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4254,7 +4251,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4331,7 +4328,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4342,7 +4339,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4353,7 +4350,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4364,7 +4361,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4419,7 +4416,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4441,7 +4438,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4452,7 +4449,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4474,7 +4471,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4496,7 +4493,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4507,7 +4504,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4518,7 +4515,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4584,7 +4581,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4639,7 +4636,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>569</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4683,7 +4680,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4694,7 +4691,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4716,7 +4713,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4771,7 +4768,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4837,7 +4834,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4892,7 +4889,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4914,7 +4911,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4991,7 +4988,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5035,7 +5032,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5057,7 +5054,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5101,7 +5098,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5123,7 +5120,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5134,7 +5131,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5145,7 +5142,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5288,7 +5285,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5332,7 +5329,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5343,7 +5340,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5420,7 +5417,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5431,7 +5428,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5497,7 +5494,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5508,7 +5505,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5596,7 +5593,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5629,7 +5626,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5651,7 +5648,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5662,7 +5659,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5684,7 +5681,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5706,7 +5703,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5728,7 +5725,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5750,7 +5747,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5805,7 +5802,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5838,7 +5835,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5948,7 +5945,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5959,7 +5956,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6003,7 +6000,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6025,7 +6022,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6124,7 +6121,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6146,7 +6143,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6201,7 +6198,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6223,7 +6220,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6322,7 +6319,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6333,7 +6330,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6344,7 +6341,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6355,7 +6352,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6443,7 +6440,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6465,7 +6462,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6509,7 +6506,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6520,7 +6517,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6564,7 +6561,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6630,7 +6627,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6641,7 +6638,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6685,7 +6682,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6740,7 +6737,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6784,7 +6781,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7048,7 +7045,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7103,7 +7100,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7114,7 +7111,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7125,7 +7122,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7136,7 +7133,7 @@
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -7169,7 +7166,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7180,7 +7177,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7191,7 +7188,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7202,7 +7199,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7213,7 +7210,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7235,7 +7232,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7246,7 +7243,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7301,7 +7298,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7323,7 +7320,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7367,7 +7364,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7422,7 +7419,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7444,7 +7441,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7488,7 +7485,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7499,7 +7496,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7510,7 +7507,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7565,7 +7562,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7576,7 +7573,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7598,7 +7595,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7609,7 +7606,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7620,7 +7617,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7664,7 +7661,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7741,7 +7738,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7774,7 +7771,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7807,7 +7804,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7895,7 +7892,7 @@
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7917,7 +7914,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7939,7 +7936,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7950,7 +7947,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7972,7 +7969,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7994,7 +7991,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8093,7 +8090,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
